--- a/main/_downloads/3ff17f81b53f236f721f6f49d2ff19bb/Audit-AddABC.xlsx
+++ b/main/_downloads/3ff17f81b53f236f721f6f49d2ff19bb/Audit-AddABC.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:C32"/>
+  <dimension ref="B2:C28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,87 +482,71 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>Parameters</t>
+          <t>.. rubric:: Parameters</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>----------</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
-          <t>a : int</t>
+          <t>- **a (int)** - This is parameter a.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">    This is parameter a.</t>
+          <t>- **b (int)** - This is parameter b.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>b : int</t>
+          <t>- **c (int)** - This is parameter c.</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    This is parameter b.</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="C14" t="inlineStr">
         <is>
-          <t>c : int</t>
+          <t>.. rubric:: Intermediates</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    This is parameter c.</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>- **ab (int)** - This holds a + b.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Intermediates</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="C18" t="inlineStr">
         <is>
-          <t>-------------</t>
+          <t>.. rubric:: Returns</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>ab : int</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">    This holds a + b.</t>
+          <t>- **abc (int)** - The sum of ab and c.</t>
         </is>
       </c>
     </row>
@@ -572,64 +556,32 @@
     <row r="22">
       <c r="C22" t="inlineStr">
         <is>
-          <t>Returns</t>
+          <t>.. rubric:: Steps</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>-------</t>
-        </is>
-      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="C24" t="inlineStr">
         <is>
-          <t>abc : int</t>
+          <t>1) **_add_a_b** - Add a and b together and assign to ab.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">    The sum of ab and c.</t>
+          <t>2) **_add_ab_c** - Add ab and c together for final return.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="inlineStr"/>
     </row>
-    <row r="27">
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Steps</t>
-        </is>
-      </c>
-    </row>
     <row r="28">
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1) _add_a_b - Add a and b together and assign to ab.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2) _add_ab_c - Add ab and c together for final return.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1126,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1942,13 +1894,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E28" t="n">
         <v>3</v>
       </c>
       <c r="F28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G28" t="n">
         <v>3</v>
@@ -1957,12 +1909,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Main</t>
+          <t>Instantiation</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>/docstring</t>
+          <t>/instantiation</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1971,27 +1923,27 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Main</t>
+          <t>Instantiation</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>/docstring</t>
+          <t>/instantiation/parameter.a</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2000,13 +1952,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
         <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -2015,41 +1967,41 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Main</t>
+          <t>Instantiation</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>/docstring</t>
+          <t>/instantiation/parameter.a</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'int'&gt;</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Main</t>
+          <t>Instantiation</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>/docstring</t>
+          <t>/instantiation/parameter.b</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2058,13 +2010,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
         <v>3</v>
       </c>
       <c r="F32" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -2078,25 +2030,25 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>/instantiation</t>
+          <t>/instantiation/parameter.b</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'int'&gt;</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -2107,7 +2059,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>/instantiation/parameter.a</t>
+          <t>/instantiation/parameter.c</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2116,13 +2068,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E34" t="n">
         <v>3</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G34" t="n">
         <v>3</v>
@@ -2136,7 +2088,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>/instantiation/parameter.a</t>
+          <t>/instantiation/parameter.c</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2145,13 +2097,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G35" t="n">
         <v>4</v>
@@ -2160,12 +2112,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Instantiation</t>
+          <t>_add_a_b</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>/instantiation/parameter.b</t>
+          <t>/steps/_add_a_b/name</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2174,56 +2126,56 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Instantiation</t>
+          <t>_add_a_b</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>/instantiation/parameter.b</t>
+          <t>/steps/_add_a_b/name</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Instantiation</t>
+          <t>_add_a_b</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>/instantiation/parameter.c</t>
+          <t>/steps/_add_a_b/method_name</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2235,42 +2187,42 @@
         <v>4</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
         <v>4</v>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Instantiation</t>
+          <t>_add_a_b</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>/instantiation/parameter.c</t>
+          <t>/steps/_add_a_b/method_name</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
       <c r="D39" t="n">
         <v>4</v>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
         <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -2281,7 +2233,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>/steps/_add_a_b/name</t>
+          <t>/steps/_add_a_b/docstring</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2290,13 +2242,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E40" t="n">
         <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2310,7 +2262,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>/steps/_add_a_b/name</t>
+          <t>/steps/_add_a_b/docstring</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2319,13 +2271,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E41" t="n">
         <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G41" t="n">
         <v>3</v>
@@ -2339,7 +2291,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>/steps/_add_a_b/method_name</t>
+          <t>/steps/_add_a_b/uses</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2348,13 +2300,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E42" t="n">
         <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2368,7 +2320,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>/steps/_add_a_b/method_name</t>
+          <t>/steps/_add_a_b/uses</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2377,13 +2329,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E43" t="n">
         <v>3</v>
       </c>
       <c r="F43" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G43" t="n">
         <v>3</v>
@@ -2397,7 +2349,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>/steps/_add_a_b/docstring</t>
+          <t>/steps/_add_a_b/impacts</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2406,13 +2358,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E44" t="n">
         <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2426,7 +2378,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>/steps/_add_a_b/docstring</t>
+          <t>/steps/_add_a_b/impacts</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2435,13 +2387,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E45" t="n">
         <v>3</v>
       </c>
       <c r="F45" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -2455,7 +2407,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>/steps/_add_a_b/uses</t>
+          <t>/steps/_add_a_b/metadata</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2464,13 +2416,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E46" t="n">
         <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2484,7 +2436,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>/steps/_add_a_b/uses</t>
+          <t>/steps/_add_a_b/metadata</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2493,13 +2445,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E47" t="n">
         <v>3</v>
       </c>
       <c r="F47" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G47" t="n">
         <v>3</v>
@@ -2513,7 +2465,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>/steps/_add_a_b/impacts</t>
+          <t>/steps/_add_a_b/output</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2522,13 +2474,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E48" t="n">
         <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2542,7 +2494,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>/steps/_add_a_b/impacts</t>
+          <t>/steps/_add_a_b/output/intermediate.ab</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2551,13 +2503,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E49" t="n">
         <v>3</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G49" t="n">
         <v>3</v>
@@ -2571,36 +2523,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>/steps/_add_a_b/metadata</t>
+          <t>/steps/_add_a_b/output/intermediate.ab</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'int'&gt;</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>_add_a_b</t>
+          <t>_add_ab_c</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>/steps/_add_a_b/metadata</t>
+          <t>/steps/_add_ab_c/name</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2609,27 +2561,27 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>_add_a_b</t>
+          <t>_add_ab_c</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>/steps/_add_a_b/output</t>
+          <t>/steps/_add_ab_c/name</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2638,27 +2590,27 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>_add_a_b</t>
+          <t>_add_ab_c</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>/steps/_add_a_b/output/intermediate.ab</t>
+          <t>/steps/_add_ab_c/method_name</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2667,45 +2619,45 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>_add_a_b</t>
+          <t>_add_ab_c</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>/steps/_add_a_b/output/intermediate.ab</t>
+          <t>/steps/_add_ab_c/method_name</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -2716,7 +2668,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>/steps/_add_ab_c/name</t>
+          <t>/steps/_add_ab_c/docstring</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2725,13 +2677,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E55" t="n">
         <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -2745,7 +2697,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>/steps/_add_ab_c/name</t>
+          <t>/steps/_add_ab_c/docstring</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2754,13 +2706,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E56" t="n">
         <v>3</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -2774,7 +2726,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>/steps/_add_ab_c/method_name</t>
+          <t>/steps/_add_ab_c/uses</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2783,13 +2735,13 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E57" t="n">
         <v>2</v>
       </c>
       <c r="F57" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2803,7 +2755,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>/steps/_add_ab_c/method_name</t>
+          <t>/steps/_add_ab_c/uses</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2812,13 +2764,13 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E58" t="n">
         <v>3</v>
       </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -2832,7 +2784,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>/steps/_add_ab_c/docstring</t>
+          <t>/steps/_add_ab_c/impacts</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2841,13 +2793,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E59" t="n">
         <v>2</v>
       </c>
       <c r="F59" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -2861,7 +2813,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>/steps/_add_ab_c/docstring</t>
+          <t>/steps/_add_ab_c/impacts</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2870,13 +2822,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E60" t="n">
         <v>3</v>
       </c>
       <c r="F60" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -2890,7 +2842,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>/steps/_add_ab_c/uses</t>
+          <t>/steps/_add_ab_c/metadata</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2899,13 +2851,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E61" t="n">
         <v>2</v>
       </c>
       <c r="F61" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -2919,7 +2871,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>/steps/_add_ab_c/uses</t>
+          <t>/steps/_add_ab_c/metadata</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2928,13 +2880,13 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E62" t="n">
         <v>3</v>
       </c>
       <c r="F62" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -2948,7 +2900,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>/steps/_add_ab_c/impacts</t>
+          <t>/steps/_add_ab_c/output</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2957,13 +2909,13 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E63" t="n">
         <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -2977,7 +2929,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>/steps/_add_ab_c/impacts</t>
+          <t>/steps/_add_ab_c/output/return.abc</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2986,13 +2938,13 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E64" t="n">
         <v>3</v>
       </c>
       <c r="F64" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G64" t="n">
         <v>3</v>
@@ -3006,36 +2958,36 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>/steps/_add_ab_c/metadata</t>
+          <t>/steps/_add_ab_c/output/return.abc</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'int'&gt;</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F65" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>_add_ab_c</t>
+          <t>Output</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>/steps/_add_ab_c/metadata</t>
+          <t>/output</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3044,27 +2996,27 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>_add_ab_c</t>
+          <t>Output</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>/steps/_add_ab_c/output</t>
+          <t>/output/abc</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3073,85 +3025,85 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>_add_ab_c</t>
+          <t>Output</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>/steps/_add_ab_c/output/return.abc</t>
+          <t>/output/abc</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'int'&gt;</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F68" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>_add_ab_c</t>
+          <t>Config</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>/steps/_add_ab_c/output/return.abc</t>
+          <t>/config</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Output</t>
+          <t>Config</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>/output</t>
+          <t>/config/show_signature</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3163,24 +3115,24 @@
         <v>2</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70" t="n">
         <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Output</t>
+          <t>Config</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>/output/abc</t>
+          <t>/config/show_signature</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3192,42 +3144,42 @@
         <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F71" t="n">
         <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Output</t>
+          <t>Config</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>/output/abc</t>
+          <t>/config/show_docstring</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -3238,7 +3190,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>/config</t>
+          <t>/config/show_docstring</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3247,16 +3199,16 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -3267,7 +3219,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>/config/show_signature</t>
+          <t>/config/show_steps</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3276,13 +3228,13 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E74" t="n">
         <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -3296,7 +3248,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>/config/show_signature</t>
+          <t>/config/show_steps</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3305,13 +3257,13 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G75" t="n">
         <v>4</v>
@@ -3325,7 +3277,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>/config/show_docstring</t>
+          <t>/config/step_config</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3334,13 +3286,13 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E76" t="n">
         <v>3</v>
       </c>
       <c r="F76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
@@ -3354,7 +3306,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>/config/show_docstring</t>
+          <t>/config/step_config/show_method_name</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3363,13 +3315,13 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
       </c>
       <c r="F77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G77" t="n">
         <v>4</v>
@@ -3383,7 +3335,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>/config/show_steps</t>
+          <t>/config/step_config/show_method_name</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3392,16 +3344,16 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -3412,7 +3364,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>/config/show_steps</t>
+          <t>/config/step_config/show_docstring</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3421,13 +3373,13 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
       </c>
       <c r="F79" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G79" t="n">
         <v>4</v>
@@ -3441,7 +3393,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>/config/step_config</t>
+          <t>/config/step_config/show_docstring</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3450,16 +3402,16 @@
         </is>
       </c>
       <c r="D80" t="n">
+        <v>6</v>
+      </c>
+      <c r="E80" t="n">
         <v>5</v>
       </c>
-      <c r="E80" t="n">
-        <v>3</v>
-      </c>
       <c r="F80" t="n">
+        <v>6</v>
+      </c>
+      <c r="G80" t="n">
         <v>5</v>
-      </c>
-      <c r="G80" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -3470,7 +3422,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>/config/step_config/show_method_name</t>
+          <t>/config/step_config/show_uses</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3479,13 +3431,13 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
       </c>
       <c r="F81" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G81" t="n">
         <v>4</v>
@@ -3499,7 +3451,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>/config/step_config/show_method_name</t>
+          <t>/config/step_config/show_uses</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3508,13 +3460,13 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E82" t="n">
         <v>5</v>
       </c>
       <c r="F82" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G82" t="n">
         <v>5</v>
@@ -3528,7 +3480,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>/config/step_config/show_docstring</t>
+          <t>/config/step_config/show_impacts</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3537,13 +3489,13 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
       </c>
       <c r="F83" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G83" t="n">
         <v>4</v>
@@ -3557,7 +3509,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>/config/step_config/show_docstring</t>
+          <t>/config/step_config/show_impacts</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3566,13 +3518,13 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E84" t="n">
         <v>5</v>
       </c>
       <c r="F84" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G84" t="n">
         <v>5</v>
@@ -3586,7 +3538,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>/config/step_config/show_uses</t>
+          <t>/config/step_config/show_output</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3595,13 +3547,13 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
       </c>
       <c r="F85" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G85" t="n">
         <v>4</v>
@@ -3615,7 +3567,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>/config/step_config/show_uses</t>
+          <t>/config/step_config/show_output</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3624,13 +3576,13 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E86" t="n">
         <v>5</v>
       </c>
       <c r="F86" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G86" t="n">
         <v>5</v>
@@ -3644,7 +3596,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>/config/step_config/show_impacts</t>
+          <t>/config/step_config/show_metadata</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3653,13 +3605,13 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
       </c>
       <c r="F87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G87" t="n">
         <v>4</v>
@@ -3673,7 +3625,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>/config/step_config/show_impacts</t>
+          <t>/config/step_config/show_metadata</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3682,131 +3634,15 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E88" t="n">
         <v>5</v>
       </c>
       <c r="F88" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Config</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>/config/step_config/show_output</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>9</v>
-      </c>
-      <c r="E89" t="n">
-        <v>4</v>
-      </c>
-      <c r="F89" t="n">
-        <v>9</v>
-      </c>
-      <c r="G89" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Config</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>/config/step_config/show_output</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>9</v>
-      </c>
-      <c r="E90" t="n">
-        <v>5</v>
-      </c>
-      <c r="F90" t="n">
-        <v>9</v>
-      </c>
-      <c r="G90" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Config</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>/config/step_config/show_metadata</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>10</v>
-      </c>
-      <c r="E91" t="n">
-        <v>4</v>
-      </c>
-      <c r="F91" t="n">
-        <v>10</v>
-      </c>
-      <c r="G91" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Config</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>/config/step_config/show_metadata</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>10</v>
-      </c>
-      <c r="E92" t="n">
-        <v>5</v>
-      </c>
-      <c r="F92" t="n">
-        <v>10</v>
-      </c>
-      <c r="G92" t="n">
         <v>5</v>
       </c>
     </row>
